--- a/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3 - 3x + 1.0868225367255733y</t>
-  </si>
-  <si>
-    <t>-2.2115413537353</t>
+    <t>5.550000000000001 - 3x + 1.1102230246251565e-16y</t>
+  </si>
+  <si>
+    <t>-2.5500000000000003</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23256681002040058</t>
-  </si>
-  <si>
-    <t>0.39575810066436823</t>
-  </si>
-  <si>
-    <t>0.4859667389502268</t>
-  </si>
-  <si>
-    <t>-4 + x - 0.27642774117733665y</t>
-  </si>
-  <si>
-    <t>-2.21308107210547</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.2657500000000006 + x - 0.455y</t>
+  </si>
+  <si>
+    <t>-4.265750000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4265237521284301</t>
-  </si>
-  <si>
-    <t>0.9098503406454665</t>
-  </si>
-  <si>
-    <t>0.8616099555038016</t>
-  </si>
-  <si>
-    <t>-7 + x</t>
-  </si>
-  <si>
-    <t>-5.0529218958696855</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>-12.149999999999999 + x + 1.1102230246251565e-16y</t>
+  </si>
+  <si>
+    <t>-5.149999999999999</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5004082174406084</t>
-  </si>
-  <si>
-    <t>0.0631238325307677</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.9470781041303145</t>
-  </si>
-  <si>
-    <t>0.5793889410435026</t>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>4.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.6269834210432648</t>
+    <t>-4.42945</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>6.990860697024232</t>
-  </si>
-  <si>
-    <t>-9.70801151205836</t>
+    <t>14.134999999999998</t>
+  </si>
+  <si>
+    <t>-39.514500000000005</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -638,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -656,18 +653,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -685,12 +682,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -708,17 +705,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -736,12 +733,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4471445176453267</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
